--- a/braph2composite_rfe/pipelines/functional/Example data FUN XLS/atlas.xlsx
+++ b/braph2composite_rfe/pipelines/functional/Example data FUN XLS/atlas.xlsx
@@ -610,12 +610,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="true"/>
-    <col min="2" max="2" width="48.1796875" customWidth="true"/>
-    <col min="3" max="3" width="6.08984375" customWidth="true"/>
-    <col min="4" max="4" width="6.08984375" customWidth="true"/>
-    <col min="5" max="5" width="6.08984375" customWidth="true"/>
-    <col min="6" max="6" width="4.7265625" customWidth="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="51" customWidth="true"/>
+    <col min="3" max="3" width="6.42578125" customWidth="true"/>
+    <col min="4" max="4" width="6.42578125" customWidth="true"/>
+    <col min="5" max="5" width="6.42578125" customWidth="true"/>
+    <col min="6" max="6" width="5.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
